--- a/medicine/Mort/Nécropole_nationale_de_Fleury-les-Aubrais/Nécropole_nationale_de_Fleury-les-Aubrais.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Fleury-les-Aubrais/Nécropole_nationale_de_Fleury-les-Aubrais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Fleury-les-Aubrais</t>
+          <t>Nécropole_nationale_de_Fleury-les-Aubrais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale de Fleury-les-Aubrais est un cimetière militaire, situé à Fleury-les-Aubrais en France créé en 1951[1]. Il regroupe 3 540 tombes[2] sur une surface de 25 046 m² : 635 tombes relatives à la Première Guerre mondiale et 2 905 relatives à la Seconde Guerre mondiale.
-Les dépouilles des victimes du massacre des 43 tirailleurs sénégalais à Clamecy ont été transférées en 1959 à Fleury-les-Aubrais[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale de Fleury-les-Aubrais est un cimetière militaire, situé à Fleury-les-Aubrais en France créé en 1951. Il regroupe 3 540 tombes sur une surface de 25 046 m² : 635 tombes relatives à la Première Guerre mondiale et 2 905 relatives à la Seconde Guerre mondiale.
+Les dépouilles des victimes du massacre des 43 tirailleurs sénégalais à Clamecy ont été transférées en 1959 à Fleury-les-Aubrais.
 </t>
         </is>
       </c>
